--- a/biology/Botanique/Priscilla_Susan_Bury/Priscilla_Susan_Bury.xlsx
+++ b/biology/Botanique/Priscilla_Susan_Bury/Priscilla_Susan_Bury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Priscilla Susan Bury, née Kalkner, est une botaniste et une illustratrice britannique, né le 12 janvier 1799 à Liverpool et morte le 8 mars 1872 à Croydon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille d’un riche marchand de Liverpool, elle se marie avec le constructeur de locomotives Edward Bury. Elle se lie avec William Roscoe (1753-1831), mécène et botaniste amateur. Bien qu’elle n’ait jamais reçu formation de botaniste ou qu’elle soit une illustratrice professionnelle, elle fait paraître de 1831 à 1834 le livre A Selection of Hexandrian Plants, dont les planches sont de sa main. Elle confie la gravure au londonien Robert Havell, graveur des planches d’Audubon (1785-1851). Le livre est réalisé en aquatinte et peint en partie à la main. Son tirage est de 350 exemplaires.
 Bury est aussi l’auteur d’illustrations pour The Botanist de Benjamin Maund (1790-1863).
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brent Elliott (2001). Flora. Une histoire illustrée des fleurs de jardin. Delachaux et Niestlé (Lausanne) : 335 p.</t>
         </is>
